--- a/solarinfobank/doc/fskupdata/zz1-devicelist.xlsx
+++ b/solarinfobank/doc/fskupdata/zz1-devicelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="370">
   <si>
     <t>说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,10 +1393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select concat(((select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) ),'-',deviceTypeCode,'-',deviceAddress) as EQ_ID, (select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) as Building_ID,d.deviceTypeCode,d.deviceAddress from device as d  where d.collectorId in ( select collectorid from plant_unit)order by Building_ID ,d.deviceTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备数量：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,6 +1410,19 @@
   </si>
   <si>
     <t>9：电表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select concat(((select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) ),'-',deviceTypeCode,'-',deviceAddress) as EQ_ID,
+ (select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) as Building_ID,d.deviceTypeCode as EQ_TYPE,
+d.deviceAddress  AS EQ_ID2 ,concat(dm.name,'#',d.deviceAddress) as '名称',(select code from collector_info where collector_info.id=d.collectorId) as '数据源',d.collectorid as collectorid,dm.designPower as '安装功率',(select updateTime from device_run_data where device_run_data.deviceID=d.id ) as '最后更新'
+from device as d join device_model as dm on d.deviceModelCode=dm.code   where d.collectorId in ( select collectorid from plant_unit)order by Building_ID ,d.deviceTypeCode
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态和说明字段搞不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:J333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1777,7 +1786,7 @@
     <col min="9" max="9" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.75" customHeight="1">
+    <row r="1" spans="1:10" ht="57.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,35 +1801,35 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="57.75" customHeight="1">
+    <row r="2" spans="1:10" ht="57.75" customHeight="1">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="1">
         <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="96.75" customHeight="1">
+    <row r="3" spans="1:10" ht="96.75" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1829,8 +1838,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1914,7 +1926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>45</v>
       </c>

--- a/solarinfobank/doc/fskupdata/zz1-devicelist.xlsx
+++ b/solarinfobank/doc/fskupdata/zz1-devicelist.xlsx
@@ -1413,16 +1413,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设备状态和说明字段搞不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 select concat(((select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) ),'-',deviceTypeCode,'-',deviceAddress) as EQ_ID,
  (select p.displayname as Building_ID from plant_unit as p where p.collectorid=d.collectorid) as Building_ID,d.deviceTypeCode as EQ_TYPE,
-d.deviceAddress  AS EQ_ID2 ,concat(dm.name,'#',d.deviceAddress) as '名称',(select code from collector_info where collector_info.id=d.collectorId) as '数据源',d.collectorid as collectorid,dm.designPower as '安装功率',(select updateTime from device_run_data where device_run_data.deviceID=d.id ) as '最后更新'
-from device as d join device_model as dm on d.deviceModelCode=dm.code   where d.collectorId in ( select collectorid from plant_unit)order by Building_ID ,d.deviceTypeCode
+d.deviceAddress  AS EQ_ID2 ,concat((select name from device_model where device_model.code=d.deviceModelCode),'#',d.deviceAddress) as '名称',(select code from collector_info where collector_info.id=d.collectorId) as '数据源',d.collectorid as collectorid,
+(select updateTime from device_run_data where device_run_data.deviceID=d.id ) as '最后更新',(select designPower from device_model where device_model.code=d.deviceModelCode) as '安装功率'
+from device as d where d.collectorId in ( select collectorid from plant_unit)order by Building_ID ,d.deviceTypeCode
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备状态和说明字段搞不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1839,7 +1840,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:10">
